--- a/public/bulk-tray-sheet-sample.xlsx
+++ b/public/bulk-tray-sheet-sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25630"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D491869F-0B1D-4DB5-B3B0-2BB2A1D55850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="408" windowWidth="22644" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="408" windowWidth="22644" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Rekrafted by DealsDray (master-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>SELECT Store Name</t>
   </si>
@@ -98,13 +97,28 @@
     <t>Tray Last Update timestamp</t>
   </si>
   <si>
+    <t>STR01</t>
+  </si>
+  <si>
+    <t>Store-2, QC</t>
+  </si>
+  <si>
+    <t>#R003__STR01 [QC Devices])</t>
+  </si>
+  <si>
+    <t>R003__STR01</t>
+  </si>
+  <si>
     <t>Warehouse</t>
+  </si>
+  <si>
+    <t>CPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -686,7 +700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,27 +732,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,24 +766,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -963,39 +941,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:XFD814"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="37" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="28" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="69.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="29" hidden="1" customWidth="1"/>
     <col min="22" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="56.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,10 +1044,31 @@
         <v>22</v>
       </c>
       <c r="Z1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/bulk-tray-sheet-sample.xlsx
+++ b/public/bulk-tray-sheet-sample.xlsx
@@ -4,53 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="408" windowWidth="22644" windowHeight="8964"/>
+    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240"/>
   </bookViews>
   <sheets>
-    <sheet name="Rekrafted by DealsDray (master-" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>SELECT Store Name</t>
-  </si>
-  <si>
-    <t>SELECT  Rack Display Name</t>
-  </si>
-  <si>
-    <t>Rack ID</t>
-  </si>
-  <si>
-    <t>Rack Tray's Limit</t>
-  </si>
-  <si>
-    <t>Tagged Trays</t>
-  </si>
-  <si>
-    <t>Rack Status</t>
-  </si>
-  <si>
-    <t>Store ID#</t>
-  </si>
-  <si>
-    <t>Store Incharge-ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tray-Category</t>
   </si>
@@ -61,52 +27,13 @@
     <t>Tray-Model</t>
   </si>
   <si>
-    <t>Tray ID</t>
-  </si>
-  <si>
     <t>Tray-Name</t>
-  </si>
-  <si>
-    <t>Tray Incharge</t>
   </si>
   <si>
     <t>Tray-Limit</t>
   </si>
   <si>
-    <t>Tray Last Status</t>
-  </si>
-  <si>
     <t>Tray-Display</t>
-  </si>
-  <si>
-    <t>Tray Creation Date</t>
-  </si>
-  <si>
-    <t>Tray Last Tagged total devices</t>
-  </si>
-  <si>
-    <t>Tray Last Assigned to</t>
-  </si>
-  <si>
-    <t>Dock Incharge ID</t>
-  </si>
-  <si>
-    <t>Tray Last Updated by</t>
-  </si>
-  <si>
-    <t>Tray Last Update timestamp</t>
-  </si>
-  <si>
-    <t>STR01</t>
-  </si>
-  <si>
-    <t>Store-2, QC</t>
-  </si>
-  <si>
-    <t>#R003__STR01 [QC Devices])</t>
-  </si>
-  <si>
-    <t>R003__STR01</t>
   </si>
   <si>
     <t>Warehouse</t>
@@ -597,7 +524,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -646,14 +581,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -942,133 +869,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:XFD814"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="37" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="69.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="29" hidden="1" customWidth="1"/>
-    <col min="22" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="56.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>